--- a/jugadoresTorneo.xlsx
+++ b/jugadoresTorneo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1e0ece63e012e3a/Documentos/UNIVERSIDAD/POO/Ejercicio5_POO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\UNIVERSITY\POO\Ejercicio5_POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72F3D9C-32A2-4D1C-8E39-67698FB9EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE89FB-1571-49B9-A4B9-1882E5EBA754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{93EB1F49-56C4-424F-A8C6-67D3601D5A2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93EB1F49-56C4-424F-A8C6-67D3601D5A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -72,21 +72,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Libero</t>
-  </si>
-  <si>
-    <t>Esteban</t>
-  </si>
-  <si>
-    <t>Pasador</t>
   </si>
 </sst>
 </file>
@@ -438,21 +423,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2CED5F-CD0A-447A-9928-90215C963087}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,82 +473,6 @@
       </c>
       <c r="L1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
